--- a/environmental_biophysics_homewor2R/month_all.xlsx
+++ b/environmental_biophysics_homewor2R/month_all.xlsx
@@ -365,47 +365,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_Ta</t>
+          <t>Ta</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_RH</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_P</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_es</t>
+          <t>es</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_ea</t>
+          <t>ea</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_VPD</t>
+          <t>VPD</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_qa</t>
+          <t>qa</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_rou_v</t>
+          <t>rou_v</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mean_bymon_Cv</t>
+          <t>Cv</t>
         </is>
       </c>
     </row>
